--- a/Templates/PublisherLoginDetails.xlsx
+++ b/Templates/PublisherLoginDetails.xlsx
@@ -5,12 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="PersonalDetails" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="AddressDetails" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="BankDetails" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -42,6 +40,45 @@
     <t xml:space="preserve">Business Id</t>
   </si>
   <si>
+    <t xml:space="preserve">Street Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pincode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Holder Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFSC Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICR Code</t>
+  </si>
+  <si>
     <t xml:space="preserve">MotilalOswalPvtLtd</t>
   </si>
   <si>
@@ -60,27 +97,6 @@
     <t xml:space="preserve">Private limited</t>
   </si>
   <si>
-    <t xml:space="preserve">Street Address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Landmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pincode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City</t>
-  </si>
-  <si>
     <t xml:space="preserve">10, Marathon Empire State Building</t>
   </si>
   <si>
@@ -97,24 +113,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Holder Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account No.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bank Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branch Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IFSC Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MICR Code</t>
   </si>
   <si>
     <t xml:space="preserve">Motilal Oswal’</t>
@@ -204,13 +202,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -230,15 +232,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.14"/>
@@ -265,25 +267,103 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>400011</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>40112235521</v>
       </c>
     </row>
   </sheetData>
@@ -295,144 +375,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>400011</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>40112235521</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Templates/PublisherLoginDetails.xlsx
+++ b/Templates/PublisherLoginDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Org Name</t>
   </si>
@@ -79,6 +79,9 @@
     <t xml:space="preserve">MICR Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Lic Selection</t>
+  </si>
+  <si>
     <t xml:space="preserve">MotilalOswalPvtLtd</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t xml:space="preserve">AAAPG5520J</t>
   </si>
   <si>
-    <t xml:space="preserve">84-5524128</t>
+    <t xml:space="preserve">'84-5524128</t>
   </si>
   <si>
     <t xml:space="preserve">ASDD55874A</t>
@@ -106,6 +109,9 @@
     <t xml:space="preserve">India</t>
   </si>
   <si>
+    <t xml:space="preserve">400011</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maharashtra</t>
   </si>
   <si>
@@ -128,6 +134,12 @@
   </si>
   <si>
     <t xml:space="preserve">UTIB000052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40112235521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
@@ -232,10 +244,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -306,64 +318,70 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>400011</v>
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="2" t="n">
-        <v>40112235521</v>
+        <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/PublisherLoginDetails.xlsx
+++ b/Templates/PublisherLoginDetails.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve">AAAPG5520J</t>
   </si>
   <si>
-    <t xml:space="preserve">'84-5524128</t>
+    <t xml:space="preserve">84-5524128</t>
   </si>
   <si>
     <t xml:space="preserve">ASDD55874A</t>
@@ -246,8 +246,8 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Templates/PublisherLoginDetails.xlsx
+++ b/Templates/PublisherLoginDetails.xlsx
@@ -82,19 +82,19 @@
     <t xml:space="preserve">Lic Selection</t>
   </si>
   <si>
-    <t xml:space="preserve">MotilalOswalPvtLtd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motilal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAAPG5520J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84-5524128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASDD55874A</t>
+    <t xml:space="preserve">ICICIBANKLtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICICIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAPG4420J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84-1124128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASDD51874A</t>
   </si>
   <si>
     <t xml:space="preserve">Private limited</t>
@@ -109,34 +109,34 @@
     <t xml:space="preserve">India</t>
   </si>
   <si>
-    <t xml:space="preserve">400011</t>
+    <t xml:space="preserve">400010</t>
   </si>
   <si>
     <t xml:space="preserve">Maharashtra</t>
   </si>
   <si>
-    <t xml:space="preserve">Currey Road</t>
+    <t xml:space="preserve">Mazgaon</t>
   </si>
   <si>
     <t xml:space="preserve">Mumbai</t>
   </si>
   <si>
-    <t xml:space="preserve">Motilal Oswal’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3606222201520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axis Bank Ltd</t>
+    <t xml:space="preserve">ICICI Bank Own Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3606222200010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICICI Bank Ltd</t>
   </si>
   <si>
     <t xml:space="preserve">Byculla Branch</t>
   </si>
   <si>
-    <t xml:space="preserve">UTIB000052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40112235521</t>
+    <t xml:space="preserve">ICIB000052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40112211521</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
@@ -247,7 +247,7 @@
   <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Templates/PublisherLoginDetails.xlsx
+++ b/Templates/PublisherLoginDetails.xlsx
@@ -133,7 +133,7 @@
     <t xml:space="preserve">Byculla Branch</t>
   </si>
   <si>
-    <t xml:space="preserve">ICIB000052</t>
+    <t xml:space="preserve">ICIB0000052</t>
   </si>
   <si>
     <t xml:space="preserve">40112211521</t>
@@ -246,8 +246,8 @@
   </sheetPr>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Templates/PublisherLoginDetails.xlsx
+++ b/Templates/PublisherLoginDetails.xlsx
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+  <si>
+    <t xml:space="preserve">UserName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password</t>
+  </si>
   <si>
     <t xml:space="preserve">Org Name</t>
   </si>
@@ -82,6 +88,9 @@
     <t xml:space="preserve">Lic Selection</t>
   </si>
   <si>
+    <t xml:space="preserve">faisal.khatri@ymail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">ICICIBANKLtd</t>
   </si>
   <si>
@@ -140,6 +149,75 @@
   </si>
   <si>
     <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mohd.khatri@63moons.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nirmal Baang Pvt Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nirmal Baang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAPG4140J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84-1144128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASAD42354A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">55, World Trade Centre, 12</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Floor,</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">World Trade Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36062222002510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colaba Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICIB0000042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40112255201</t>
   </si>
 </sst>
 </file>
@@ -149,7 +227,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -170,6 +248,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -225,6 +317,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -244,20 +340,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.02"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -279,10 +376,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -318,73 +415,157 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>123456</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>123456</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>39</v>
+      <c r="S3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="faisal.khatri@ymail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="mohd.khatri@63moons.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Templates/PublisherLoginDetails.xlsx
+++ b/Templates/PublisherLoginDetails.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
-  <si>
-    <t xml:space="preserve">UserName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+  <si>
+    <t xml:space="preserve">Email ID</t>
   </si>
   <si>
     <t xml:space="preserve">Password</t>
@@ -85,12 +85,15 @@
     <t xml:space="preserve">MICR Code</t>
   </si>
   <si>
-    <t xml:space="preserve">Lic Selection</t>
+    <t xml:space="preserve">Lic Selection(0-Gold, 1-Silver)</t>
   </si>
   <si>
     <t xml:space="preserve">faisal.khatri@ymail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">123456</t>
+  </si>
+  <si>
     <t xml:space="preserve">ICICIBANKLtd</t>
   </si>
   <si>
@@ -154,10 +157,10 @@
     <t xml:space="preserve">mohd.khatri@63moons.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Nirmal Baang Pvt Ltd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nirmal Baang</t>
+    <t xml:space="preserve">NirmalBaangPvtLtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NirmalBaang</t>
   </si>
   <si>
     <t xml:space="preserve">AAAPG4140J</t>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t xml:space="preserve">40112255201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
 </sst>
 </file>
@@ -429,136 +435,136 @@
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>123456</v>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>123456</v>
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="V3" s="1" t="n">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/PublisherLoginDetails.xlsx
+++ b/Templates/PublisherLoginDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t xml:space="preserve">Email ID</t>
   </si>
@@ -88,25 +88,25 @@
     <t xml:space="preserve">Lic Selection(0-Gold, 1-Silver)</t>
   </si>
   <si>
-    <t xml:space="preserve">faisal.khatri@ymail.com</t>
+    <t xml:space="preserve">amiya.acharya@63moons.com</t>
   </si>
   <si>
     <t xml:space="preserve">123456</t>
   </si>
   <si>
-    <t xml:space="preserve">ICICIBANKLtd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICICIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAAPG4420J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84-1124128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASDD51874A</t>
+    <t xml:space="preserve">AcharyaInvestmentLtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AcharyaInv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAPG4410J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84-1155128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASDD57874A</t>
   </si>
   <si>
     <t xml:space="preserve">Private limited</t>
@@ -154,22 +154,25 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">mohd.khatri@63moons.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NirmalBaangPvtLtd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NirmalBaang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAAPG4140J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84-1144128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASAD42354A</t>
+    <t xml:space="preserve">saurabh.meher@63moons.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaurabhBrokers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaurabhBrok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAPG4540J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84-1179128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASAD62354A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broking firm</t>
   </si>
   <si>
     <r>
@@ -348,8 +351,8 @@
   </sheetPr>
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -499,7 +502,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -522,25 +525,25 @@
         <v>49</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>36</v>
@@ -549,28 +552,28 @@
         <v>37</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="faisal.khatri@ymail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="mohd.khatri@63moons.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="amiya.acharya@63moons.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="saurabh.meher@63moons"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Templates/PublisherLoginDetails.xlsx
+++ b/Templates/PublisherLoginDetails.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">Lic Selection(0-Gold, 1-Silver)</t>
   </si>
   <si>
-    <t xml:space="preserve">amiya.acharya@63moons.com</t>
+    <t xml:space="preserve">faisal@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">123456</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">saurabh.meher@63moons.com</t>
+    <t xml:space="preserve">khatri@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">SaurabhBrokers</t>
@@ -351,8 +351,8 @@
   </sheetPr>
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V3" activeCellId="0" sqref="V3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -434,7 +434,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -502,7 +502,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
@@ -572,8 +572,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="amiya.acharya@63moons.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="saurabh.meher@63moons"/>
+    <hyperlink ref="A2" r:id="rId1" display="faisal@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="khatri@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Templates/PublisherLoginDetails.xlsx
+++ b/Templates/PublisherLoginDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t xml:space="preserve">Email ID</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Business Id</t>
   </si>
   <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
     <t xml:space="preserve">Street Address</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
     <t xml:space="preserve">Private limited</t>
   </si>
   <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
     <t xml:space="preserve">10, Marathon Empire State Building</t>
   </si>
   <si>
@@ -173,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">Broking firm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gujarati</t>
   </si>
   <si>
     <r>
@@ -349,10 +358,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -391,7 +400,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -430,144 +439,153 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="T3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/PublisherLoginDetails.xlsx
+++ b/Templates/PublisherLoginDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t xml:space="preserve">Email ID</t>
   </si>
@@ -91,25 +91,25 @@
     <t xml:space="preserve">Lic Selection(0-Gold, 1-Silver)</t>
   </si>
   <si>
-    <t xml:space="preserve">faisal@gmail.com</t>
+    <t xml:space="preserve">fkhatri@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">123456</t>
   </si>
   <si>
-    <t xml:space="preserve">AcharyaInvestmentLtd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AcharyaInv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAAPG4410J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84-1155128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASDD57874A</t>
+    <t xml:space="preserve">AnandRathiLtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnadRathi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAPG5510J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84-1156128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASDD58874A</t>
   </si>
   <si>
     <t xml:space="preserve">Private limited</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Mumbai</t>
   </si>
   <si>
-    <t xml:space="preserve">ICICI Bank Own Account</t>
+    <t xml:space="preserve">Anand Rathi</t>
   </si>
   <si>
     <t xml:space="preserve">3606222200010</t>
@@ -160,22 +160,22 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">khatri@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaurabhBrokers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SaurabhBrok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAAPG4540J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84-1179128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASAD62354A</t>
+    <t xml:space="preserve">mkhatri@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndianBrokerLtd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAPG6440J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84-1181128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASAD61354A</t>
   </si>
   <si>
     <t xml:space="preserve">Broking firm</t>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t xml:space="preserve">Colaba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Brokers</t>
   </si>
   <si>
     <t xml:space="preserve">36062222002510</t>
@@ -360,8 +363,8 @@
   </sheetPr>
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W3" activeCellId="0" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -567,31 +570,31 @@
         <v>38</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="faisal@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="khatri@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="fkhatri@gmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="mkhatri@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Templates/PublisherLoginDetails.xlsx
+++ b/Templates/PublisherLoginDetails.xlsx
@@ -91,25 +91,25 @@
     <t xml:space="preserve">Lic Selection(0-Gold, 1-Silver)</t>
   </si>
   <si>
-    <t xml:space="preserve">fkhatri@gmail.com</t>
+    <t xml:space="preserve">abc_1@yaho.com</t>
   </si>
   <si>
     <t xml:space="preserve">123456</t>
   </si>
   <si>
-    <t xml:space="preserve">AnandRathiLtd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnadRathi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAAPG5510J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84-1156128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASDD58874A</t>
+    <t xml:space="preserve">CallAdvisors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CallAdvisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAPG5110J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84-1126128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASDD44874A</t>
   </si>
   <si>
     <t xml:space="preserve">Private limited</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Mumbai</t>
   </si>
   <si>
-    <t xml:space="preserve">Anand Rathi</t>
+    <t xml:space="preserve">Call Adviros</t>
   </si>
   <si>
     <t xml:space="preserve">3606222200010</t>
@@ -160,22 +160,22 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">mkhatri@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IndianBrokerLtd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAAPG6440J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84-1181128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASAD61354A</t>
+    <t xml:space="preserve">abc_22@yaho.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JohnnyBrokers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAPG6140J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84-1141128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASAD64354A</t>
   </si>
   <si>
     <t xml:space="preserve">Broking firm</t>
@@ -223,7 +223,7 @@
     <t xml:space="preserve">Colaba</t>
   </si>
   <si>
-    <t xml:space="preserve">Indian Brokers</t>
+    <t xml:space="preserve">Johnny Bonzela</t>
   </si>
   <si>
     <t xml:space="preserve">36062222002510</t>
@@ -363,8 +363,8 @@
   </sheetPr>
   <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W3" activeCellId="0" sqref="W3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -593,8 +593,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="fkhatri@gmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="mkhatri@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="abc_1@yaho.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="abc_22@yaho.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
